--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Edn3-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>ECs</t>
+  </si>
+  <si>
+    <t>FAPs</t>
   </si>
   <si>
     <t>M2</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,16 +531,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.2403471967956</v>
+        <v>6.180598</v>
       </c>
       <c r="H2">
-        <v>4.2403471967956</v>
+        <v>18.541794</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.7562467971068</v>
+        <v>29.463391</v>
       </c>
       <c r="N2">
-        <v>17.7562467971068</v>
+        <v>88.390173</v>
       </c>
       <c r="O2">
-        <v>0.4820538671480786</v>
+        <v>0.5524066141697463</v>
       </c>
       <c r="P2">
-        <v>0.4820538671480786</v>
+        <v>0.5524066141697463</v>
       </c>
       <c r="Q2">
-        <v>75.29265133172268</v>
+        <v>182.101375487818</v>
       </c>
       <c r="R2">
-        <v>75.29265133172268</v>
+        <v>1638.912379390362</v>
       </c>
       <c r="S2">
-        <v>0.4820538671480786</v>
+        <v>0.5524066141697463</v>
       </c>
       <c r="T2">
-        <v>0.4820538671480786</v>
+        <v>0.5524066141697463</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +593,16 @@
         <v>24</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.2403471967956</v>
+        <v>6.180598</v>
       </c>
       <c r="H3">
-        <v>4.2403471967956</v>
+        <v>18.541794</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +611,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.21718860193262</v>
+        <v>0.136243</v>
       </c>
       <c r="N3">
-        <v>3.21718860193262</v>
+        <v>0.408729</v>
       </c>
       <c r="O3">
-        <v>0.08734155503848012</v>
+        <v>0.002554408429577191</v>
       </c>
       <c r="P3">
-        <v>0.08734155503848012</v>
+        <v>0.002554408429577191</v>
       </c>
       <c r="Q3">
-        <v>13.64199666976774</v>
+        <v>0.842063213314</v>
       </c>
       <c r="R3">
-        <v>13.64199666976774</v>
+        <v>7.578568919826</v>
       </c>
       <c r="S3">
-        <v>0.08734155503848012</v>
+        <v>0.002554408429577191</v>
       </c>
       <c r="T3">
-        <v>0.08734155503848012</v>
+        <v>0.002554408429577191</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,55 +652,117 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>6.180598</v>
+      </c>
+      <c r="H4">
+        <v>18.541794</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>3.897293666666666</v>
+      </c>
+      <c r="N4">
+        <v>11.691881</v>
+      </c>
+      <c r="O4">
+        <v>0.07307002777882997</v>
+      </c>
+      <c r="P4">
+        <v>0.07307002777882997</v>
+      </c>
+      <c r="Q4">
+        <v>24.08760544161266</v>
+      </c>
+      <c r="R4">
+        <v>216.788448974514</v>
+      </c>
+      <c r="S4">
+        <v>0.07307002777882997</v>
+      </c>
+      <c r="T4">
+        <v>0.07307002777882997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>4.2403471967956</v>
-      </c>
-      <c r="H4">
-        <v>4.2403471967956</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>15.8611343600543</v>
-      </c>
-      <c r="N4">
-        <v>15.8611343600543</v>
-      </c>
-      <c r="O4">
-        <v>0.4306045778134412</v>
-      </c>
-      <c r="P4">
-        <v>0.4306045778134412</v>
-      </c>
-      <c r="Q4">
-        <v>67.25671662165463</v>
-      </c>
-      <c r="R4">
-        <v>67.25671662165463</v>
-      </c>
-      <c r="S4">
-        <v>0.4306045778134412</v>
-      </c>
-      <c r="T4">
-        <v>0.4306045778134412</v>
+      <c r="B5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>6.180598</v>
+      </c>
+      <c r="H5">
+        <v>18.541794</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>19.839492</v>
+      </c>
+      <c r="N5">
+        <v>59.518476</v>
+      </c>
+      <c r="O5">
+        <v>0.3719689496218466</v>
+      </c>
+      <c r="P5">
+        <v>0.3719689496218466</v>
+      </c>
+      <c r="Q5">
+        <v>122.619924576216</v>
+      </c>
+      <c r="R5">
+        <v>1103.579321185944</v>
+      </c>
+      <c r="S5">
+        <v>0.3719689496218466</v>
+      </c>
+      <c r="T5">
+        <v>0.3719689496218466</v>
       </c>
     </row>
   </sheetData>
